--- a/doc/AEP CAN database.xlsx
+++ b/doc/AEP CAN database.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t xml:space="preserve">Message </t>
   </si>
@@ -301,13 +301,16 @@
   </si>
   <si>
     <t>Gearbox_Status</t>
+  </si>
+  <si>
+    <t>B = byte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +318,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,12 +335,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -338,24 +402,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -397,7 +517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +549,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,6 +584,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,482 +760,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
-        <v>17</v>
+      <c r="O5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3">
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="9">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
+      <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O5" t="s">
-        <v>36</v>
+      <c r="O11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="D13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O13" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" t="s">
-        <v>39</v>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1123,26 +1303,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/AEP CAN database.xlsx
+++ b/doc/AEP CAN database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t xml:space="preserve">Message </t>
   </si>
@@ -174,27 +174,6 @@
     <t>ACU</t>
   </si>
   <si>
-    <t>Driver_Indication</t>
-  </si>
-  <si>
-    <t>Driver_Ind_Duty</t>
-  </si>
-  <si>
-    <t>Driver_Ind_Period</t>
-  </si>
-  <si>
-    <t>Passenger_Indication</t>
-  </si>
-  <si>
-    <t>Passenger_Ind_Duty</t>
-  </si>
-  <si>
-    <t>Passenger_Ind_Period</t>
-  </si>
-  <si>
-    <t>Driver_Auxiliary_Request</t>
-  </si>
-  <si>
     <t>200ms</t>
   </si>
   <si>
@@ -304,6 +283,9 @@
   </si>
   <si>
     <t>B = byte</t>
+  </si>
+  <si>
+    <t>SeatBelT_Status</t>
   </si>
 </sst>
 </file>
@@ -320,13 +302,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,31 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,10 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,7 +731,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +810,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -856,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -878,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>7</v>
@@ -914,54 +880,54 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -990,13 +956,13 @@
         <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
@@ -1005,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1025,13 +991,13 @@
         <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -1065,10 +1031,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1095,126 +1061,114 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="10">
         <v>7</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="G10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="H10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="J10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>59</v>
+      <c r="O10" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1226,74 +1180,74 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/doc/AEP CAN database.xlsx
+++ b/doc/AEP CAN database.xlsx
@@ -731,7 +731,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
